--- a/python/Data/poll-data-nsw.xlsx
+++ b/python/Data/poll-data-nsw.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\source\repos\Polling Analyser\python\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB90D11-BF72-4254-B3F8-40B27BC26A12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1B1ABE2-5C65-4901-A165-169BE9D10BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11475" yWindow="2625" windowWidth="12465" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3135" yWindow="3075" windowWidth="30180" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="21">
   <si>
     <t>MidDate</t>
   </si>
@@ -93,6 +94,9 @@
   </si>
   <si>
     <t>SMS Morgan</t>
+  </si>
+  <si>
+    <t>ResolvePM</t>
   </si>
 </sst>
 </file>
@@ -414,12 +418,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T187"/>
+  <dimension ref="A1:T188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A153" activePane="bottomLeft"/>
+      <pane ySplit="600" topLeftCell="A174" activePane="bottomLeft"/>
       <selection activeCell="I1" sqref="I1:I1048576"/>
-      <selection pane="bottomLeft" activeCell="G164" sqref="G164"/>
+      <selection pane="bottomLeft" activeCell="D183" sqref="D183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5867,6 +5871,32 @@
         <v>14</v>
       </c>
     </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>44317</v>
+      </c>
+      <c r="B188" t="s">
+        <v>20</v>
+      </c>
+      <c r="D188">
+        <v>44</v>
+      </c>
+      <c r="E188">
+        <v>28</v>
+      </c>
+      <c r="F188">
+        <v>12</v>
+      </c>
+      <c r="G188" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H188">
+        <v>4</v>
+      </c>
+      <c r="I188">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
